--- a/data/trans_orig/P44C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Estudios-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7158</v>
+        <v>6956</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03030228590508507</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1084151488889276</v>
+        <v>0.1053543963673236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6186</v>
+        <v>7422</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01765893205863977</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05459997509800028</v>
+        <v>0.06551270500141552</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>15481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9338</v>
+        <v>9587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23673</v>
+        <v>22755</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3275035779148791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1975359396067058</v>
+        <v>0.2028153818243319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5008069004714745</v>
+        <v>0.4813928330588191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -827,19 +827,19 @@
         <v>25934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18194</v>
+        <v>18929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33456</v>
+        <v>34894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3928197688358012</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2755749684636214</v>
+        <v>0.2867086731550595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5067474338511077</v>
+        <v>0.5285257780492637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -848,19 +848,19 @@
         <v>41415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32380</v>
+        <v>31687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>51970</v>
+        <v>52790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3655671808197725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2858110654631434</v>
+        <v>0.279696770973857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.458733232604175</v>
+        <v>0.4659685780378117</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>28571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20612</v>
+        <v>21512</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34604</v>
+        <v>35320</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6044137296831131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4360539862971766</v>
+        <v>0.4550974404270774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.73205243732838</v>
+        <v>0.7472015508336455</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -898,19 +898,19 @@
         <v>31195</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23118</v>
+        <v>22502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39249</v>
+        <v>39098</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4724960225808849</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.350157065059252</v>
+        <v>0.340823737112246</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5944854819728326</v>
+        <v>0.5922048189276521</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -919,19 +919,19 @@
         <v>59765</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48587</v>
+        <v>48446</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70109</v>
+        <v>70547</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5275374889154532</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4288646804976134</v>
+        <v>0.4276251783247779</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6188408029152402</v>
+        <v>0.6227100353196634</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>3218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8468</v>
+        <v>8188</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06808269240200777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02120975916984538</v>
+        <v>0.02102188948792242</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1791353373683251</v>
+        <v>0.1732250146732226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -969,19 +969,19 @@
         <v>6891</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2869</v>
+        <v>2913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13849</v>
+        <v>13716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1043819226782289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04345817008401318</v>
+        <v>0.04412257118380405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2097646264046809</v>
+        <v>0.2077484203865351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -990,19 +990,19 @@
         <v>10110</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4956</v>
+        <v>5072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17409</v>
+        <v>17682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08923639820613463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04374290719317279</v>
+        <v>0.04477229813149752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.153664861301809</v>
+        <v>0.1560747355739636</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12867</v>
+        <v>10962</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06802127612672093</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2586531644994573</v>
+        <v>0.2203491299008244</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7531</v>
+        <v>9897</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.062824182636779</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2473726579745632</v>
+        <v>0.3251040486894715</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1136,19 +1136,19 @@
         <v>5296</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1015</v>
+        <v>976</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16063</v>
+        <v>14529</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06604831309426662</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01266173251283595</v>
+        <v>0.01217158674145807</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2003119371701667</v>
+        <v>0.1811925739761574</v>
       </c>
     </row>
     <row r="10">
@@ -1165,19 +1165,19 @@
         <v>9493</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4080</v>
+        <v>4879</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16969</v>
+        <v>17618</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1908341992144553</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08200507587011759</v>
+        <v>0.09807158078038482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3411058775029719</v>
+        <v>0.3541489471862426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1186,19 +1186,19 @@
         <v>8688</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4208</v>
+        <v>4376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15068</v>
+        <v>15718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2853921212544361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1382211246335968</v>
+        <v>0.143738073000688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4949777221319169</v>
+        <v>0.5163337092461735</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1207,19 +1207,19 @@
         <v>18181</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10819</v>
+        <v>10488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28292</v>
+        <v>27274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2267310490540111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.134917028829513</v>
+        <v>0.1307929501329056</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3528264573598363</v>
+        <v>0.3401194740797325</v>
       </c>
     </row>
     <row r="11">
@@ -1236,19 +1236,19 @@
         <v>29209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20709</v>
+        <v>21712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36659</v>
+        <v>36398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5871561096217015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4162964246676172</v>
+        <v>0.4364450678974919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7369003696104907</v>
+        <v>0.7316532763920145</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1257,19 +1257,19 @@
         <v>9556</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4790</v>
+        <v>4918</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15232</v>
+        <v>15327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3139063819626831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.157359620336129</v>
+        <v>0.1615629031156532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5003638981009104</v>
+        <v>0.5034797149539053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -1278,19 +1278,19 @@
         <v>38765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29761</v>
+        <v>29712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48032</v>
+        <v>49562</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4834228186307259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3711435892610037</v>
+        <v>0.370524268245585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5989936082252741</v>
+        <v>0.6180750807706142</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1307,19 @@
         <v>7660</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3153</v>
+        <v>3180</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14188</v>
+        <v>13709</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1539884150371223</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06338712270670693</v>
+        <v>0.06392190894634495</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2852126420471358</v>
+        <v>0.2755656332396945</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1328,19 +1328,19 @@
         <v>10286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5281</v>
+        <v>5144</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16428</v>
+        <v>16805</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3378773141461018</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.173467176545565</v>
+        <v>0.168987514467599</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5396495943160351</v>
+        <v>0.5520191536563388</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1349,19 +1349,19 @@
         <v>17946</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11333</v>
+        <v>11488</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27393</v>
+        <v>26912</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2237978192209963</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1413350199995962</v>
+        <v>0.1432625964749076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3416079401474219</v>
+        <v>0.33561127588502</v>
       </c>
     </row>
     <row r="13">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7532</v>
+        <v>7356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1394438439620395</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5169387669720353</v>
+        <v>0.5048718419893278</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6614</v>
+        <v>6875</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1947693039020615</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5295793404789264</v>
+        <v>0.550502463684003</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1495,19 +1495,19 @@
         <v>4464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1234</v>
+        <v>1185</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10845</v>
+        <v>11531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1649790352048064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04558781542196648</v>
+        <v>0.04380221894396491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4007880612228153</v>
+        <v>0.4261407530594616</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8280</v>
+        <v>8510</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2174189201093661</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.568230645000825</v>
+        <v>0.5840667363157555</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5597</v>
+        <v>5527</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1645067732344955</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4481230132801581</v>
+        <v>0.4425393690325417</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1566,19 +1566,19 @@
         <v>5223</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1045</v>
+        <v>1126</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10861</v>
+        <v>11860</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1929975815252868</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03861798069032816</v>
+        <v>0.04160543066724537</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4013751466594677</v>
+        <v>0.4382756368278735</v>
       </c>
     </row>
     <row r="16">
@@ -1595,19 +1595,19 @@
         <v>4876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1644</v>
+        <v>1618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9315</v>
+        <v>9419</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3346560408718443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1127940031450821</v>
+        <v>0.1110680627924631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.639250196424455</v>
+        <v>0.6464164169789256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1616,19 +1616,19 @@
         <v>3686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8294</v>
+        <v>8289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2951001709416011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08170991235957661</v>
+        <v>0.08193078258804884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6641437048985616</v>
+        <v>0.6636968896745667</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1637,19 +1637,19 @@
         <v>8562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3934</v>
+        <v>3950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14388</v>
+        <v>13995</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3163992255731052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.145372234517312</v>
+        <v>0.1459639493215598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5317041215668894</v>
+        <v>0.517191044404803</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>4495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1143</v>
+        <v>1071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9299</v>
+        <v>8919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3084811950567501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07845307459304056</v>
+        <v>0.07349295390481198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6381591138492531</v>
+        <v>0.6121284223682916</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1687,19 +1687,19 @@
         <v>4316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1086</v>
+        <v>1016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7992</v>
+        <v>8037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.345623751921842</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08697932334579217</v>
+        <v>0.08133482746296818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6399059784090464</v>
+        <v>0.6435401260642312</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1708,19 +1708,19 @@
         <v>8811</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4193</v>
+        <v>4135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15123</v>
+        <v>14441</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3256241576968016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.154935446696665</v>
+        <v>0.1528191242028481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5588599702596646</v>
+        <v>0.5336726224374105</v>
       </c>
     </row>
     <row r="18">
@@ -1812,19 +1812,19 @@
         <v>5416</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1833,19 +1833,19 @@
         <v>6346</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2313</v>
+        <v>2283</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14326</v>
+        <v>14323</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05824213715919618</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02122944236694474</v>
+        <v>0.02095538414248373</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1314846616976169</v>
+        <v>0.1314632325141746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1854,19 +1854,19 @@
         <v>11761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5391</v>
+        <v>5534</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22487</v>
+        <v>22559</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0533293950740771</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02444544825509081</v>
+        <v>0.02509254564044724</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1019629104350399</v>
+        <v>0.1022918965197052</v>
       </c>
     </row>
     <row r="20">
@@ -1883,19 +1883,19 @@
         <v>28142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1904,19 +1904,19 @@
         <v>36677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27145</v>
+        <v>27313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47250</v>
+        <v>48267</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3366322302272906</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2491405999540232</v>
+        <v>0.2506847714129734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4336765493328504</v>
+        <v>0.4430083931088592</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -1925,19 +1925,19 @@
         <v>64819</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51153</v>
+        <v>51789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78968</v>
+        <v>79954</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.293912138864191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2319470329536513</v>
+        <v>0.2348283975921349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.358066489646362</v>
+        <v>0.3625389430295172</v>
       </c>
     </row>
     <row r="21">
@@ -1954,19 +1954,19 @@
         <v>62656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>41</v>
@@ -1975,19 +1975,19 @@
         <v>44437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33296</v>
+        <v>33587</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54733</v>
+        <v>55152</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4078503671866435</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3055953334241124</v>
+        <v>0.3082671956954059</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5023535687744637</v>
+        <v>0.5062040385894936</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -1996,19 +1996,19 @@
         <v>107092</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>90959</v>
+        <v>90899</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122725</v>
+        <v>123033</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4855908758096458</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4124379763020517</v>
+        <v>0.4121659519883004</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5564769788872136</v>
+        <v>0.5578752324006749</v>
       </c>
     </row>
     <row r="22">
@@ -2025,19 +2025,19 @@
         <v>15373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2046,19 +2046,19 @@
         <v>21494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13395</v>
+        <v>13751</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30662</v>
+        <v>30934</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1972752654268697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1229421156299244</v>
+        <v>0.1262121525160901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2814244868590132</v>
+        <v>0.2839239701978239</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2067,19 +2067,19 @@
         <v>36867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26862</v>
+        <v>26110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50887</v>
+        <v>50041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1671675902520861</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1217995394755528</v>
+        <v>0.1183919620977472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2307394586865602</v>
+        <v>0.2269033702183655</v>
       </c>
     </row>
     <row r="23">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5557</v>
+        <v>5585</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02087797540286076</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1019642500157171</v>
+        <v>0.102475972211485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7111</v>
+        <v>7622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0385126359252527</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1160820998429655</v>
+        <v>0.1244302195038476</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2452,19 +2452,19 @@
         <v>3497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9218</v>
+        <v>9168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03021014563649713</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009650155531985555</v>
+        <v>0.00946651389873019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07963340073994161</v>
+        <v>0.07920022759179238</v>
       </c>
     </row>
     <row r="5">
@@ -2481,19 +2481,19 @@
         <v>14533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8937</v>
+        <v>9016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20905</v>
+        <v>21279</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.266664939365688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1639831900360187</v>
+        <v>0.1654376991258651</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3835894532630336</v>
+        <v>0.3904526744097049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2502,19 +2502,19 @@
         <v>17179</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10754</v>
+        <v>10727</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25764</v>
+        <v>25137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2804428354658889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1755578357924633</v>
+        <v>0.1751126339945313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4205869840717709</v>
+        <v>0.4103501059734956</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -2523,19 +2523,19 @@
         <v>31712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23040</v>
+        <v>22190</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41992</v>
+        <v>41743</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2739561300129458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1990393185645186</v>
+        <v>0.1916941518208645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3627623509265088</v>
+        <v>0.3606108567565501</v>
       </c>
     </row>
     <row r="6">
@@ -2552,19 +2552,19 @@
         <v>31875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23714</v>
+        <v>25070</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38351</v>
+        <v>39190</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5848693395549915</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4351182625741338</v>
+        <v>0.4600077902019084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.703706003273523</v>
+        <v>0.7190941610951255</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -2573,19 +2573,19 @@
         <v>38492</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29594</v>
+        <v>29787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45867</v>
+        <v>45588</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6283585956998372</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4831051614226439</v>
+        <v>0.4862575631082291</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.748750632464724</v>
+        <v>0.7441941465562071</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -2594,19 +2594,19 @@
         <v>70367</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>59867</v>
+        <v>60183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>80904</v>
+        <v>81239</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6078836267403095</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5171744266084184</v>
+        <v>0.5199047320008425</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6989139786297441</v>
+        <v>0.7018098535119888</v>
       </c>
     </row>
     <row r="7">
@@ -2623,19 +2623,19 @@
         <v>6953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3048</v>
+        <v>3096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13025</v>
+        <v>13797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1275877456764596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05592667192636667</v>
+        <v>0.05680306980250301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2390024284173238</v>
+        <v>0.2531608222158309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2647,16 +2647,16 @@
         <v>1013</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8779</v>
+        <v>9839</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05268593290902118</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01654360380947108</v>
+        <v>0.01652998839727668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1433139835594223</v>
+        <v>0.1606176976935133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -2665,19 +2665,19 @@
         <v>10181</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5120</v>
+        <v>5068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18314</v>
+        <v>17082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08795009761024766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04422687439985984</v>
+        <v>0.043780234083946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1582099605565156</v>
+        <v>0.1475671223360446</v>
       </c>
     </row>
     <row r="8">
@@ -2769,19 +2769,19 @@
         <v>5095</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1983</v>
+        <v>1911</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11468</v>
+        <v>12418</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06659775717627231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02592634384277663</v>
+        <v>0.024972702342083</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1498947030214706</v>
+        <v>0.1623159409106286</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>5095</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1863</v>
+        <v>1941</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11608</v>
+        <v>11315</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04510970221424712</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01649593885152481</v>
+        <v>0.01718611620651772</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1027724765460468</v>
+        <v>0.1001782168491219</v>
       </c>
     </row>
     <row r="10">
@@ -2832,19 +2832,19 @@
         <v>13805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8129</v>
+        <v>8035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22462</v>
+        <v>22017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1804490669648592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1062583884099784</v>
+        <v>0.1050303358915748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2936037707067318</v>
+        <v>0.2877851460062323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -2853,19 +2853,19 @@
         <v>14809</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8662</v>
+        <v>8905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21253</v>
+        <v>21211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4063737030451007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2376740315251542</v>
+        <v>0.2443667378411361</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5831728173831308</v>
+        <v>0.5820391429148745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2874,19 +2874,19 @@
         <v>28614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19405</v>
+        <v>20449</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38688</v>
+        <v>38735</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2533446298667494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1718106763848397</v>
+        <v>0.1810502602393684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3425376556422785</v>
+        <v>0.3429549125341829</v>
       </c>
     </row>
     <row r="11">
@@ -2903,19 +2903,19 @@
         <v>40165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31101</v>
+        <v>30451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49232</v>
+        <v>49131</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5250010446281542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4065279638769163</v>
+        <v>0.3980305416109183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6435173027655745</v>
+        <v>0.6422062647580539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -2924,19 +2924,19 @@
         <v>14947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8917</v>
+        <v>9533</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21760</v>
+        <v>21404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4101579428794562</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2446920115081339</v>
+        <v>0.261589151871007</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5970942650987683</v>
+        <v>0.5873264285306415</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -2945,19 +2945,19 @@
         <v>55112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43405</v>
+        <v>44233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65561</v>
+        <v>65303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4879464201630425</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3842975967212868</v>
+        <v>0.3916338589020915</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5804621060895107</v>
+        <v>0.5781820600571166</v>
       </c>
     </row>
     <row r="12">
@@ -2974,19 +2974,19 @@
         <v>17439</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10902</v>
+        <v>10480</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26581</v>
+        <v>25555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2279521312307143</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1425077032497396</v>
+        <v>0.1369826189386101</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3474499113358117</v>
+        <v>0.3340355127193019</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -2995,19 +2995,19 @@
         <v>6686</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2567</v>
+        <v>3024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12997</v>
+        <v>12529</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1834683540754432</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07044802155243399</v>
+        <v>0.08297421844272526</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3566503636985741</v>
+        <v>0.3437910296750709</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -3016,19 +3016,19 @@
         <v>24125</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16019</v>
+        <v>15669</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33562</v>
+        <v>33409</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2135992477559611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1418254153566306</v>
+        <v>0.1387292530969691</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2971547975321047</v>
+        <v>0.2957920865157873</v>
       </c>
     </row>
     <row r="13">
@@ -3120,19 +3120,19 @@
         <v>5576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1836</v>
+        <v>1856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11787</v>
+        <v>11072</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.192669777088716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06342067249361857</v>
+        <v>0.06411799289313851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4072444430558995</v>
+        <v>0.3825491777480294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3141,19 +3141,19 @@
         <v>3348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7665</v>
+        <v>8060</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2073714772764728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06195909355537218</v>
+        <v>0.06290065023501618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4748215405806943</v>
+        <v>0.4993026369156661</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3162,19 +3162,19 @@
         <v>8924</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4315</v>
+        <v>4050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15841</v>
+        <v>15951</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1979337449544392</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09570545476873546</v>
+        <v>0.08982479152510187</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3513472849037702</v>
+        <v>0.3537732189229512</v>
       </c>
     </row>
     <row r="15">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3785</v>
+        <v>3974</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02858825606134332</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1307697617958685</v>
+        <v>0.1373064683065021</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8176</v>
+        <v>7592</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1126950008593403</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5064712084466407</v>
+        <v>0.4702954859530677</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9724</v>
+        <v>9869</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05870281398682269</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2156756820054876</v>
+        <v>0.2188814538387524</v>
       </c>
     </row>
     <row r="16">
@@ -3262,19 +3262,19 @@
         <v>16057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9778</v>
+        <v>9676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21018</v>
+        <v>21516</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5547856958116318</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3378398173281495</v>
+        <v>0.3343292849464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7261980520379904</v>
+        <v>0.7433958179449845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3283,19 +3283,19 @@
         <v>5166</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1072</v>
+        <v>1860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9256</v>
+        <v>9862</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3200458122276224</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06643297998582107</v>
+        <v>0.1151942796324515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5733446434163975</v>
+        <v>0.610910678502787</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3304,19 +3304,19 @@
         <v>21224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14175</v>
+        <v>14251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28735</v>
+        <v>28770</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4707366954777218</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3143832075818456</v>
+        <v>0.3160758228086849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6373136054269933</v>
+        <v>0.6380996004368734</v>
       </c>
     </row>
     <row r="17">
@@ -3333,19 +3333,19 @@
         <v>6482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3012</v>
+        <v>2315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12948</v>
+        <v>12338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2239562710383088</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.104058202072844</v>
+        <v>0.07997230818849778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4473790204032962</v>
+        <v>0.4262869592820783</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -3354,19 +3354,19 @@
         <v>5810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1899</v>
+        <v>1853</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11089</v>
+        <v>10819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3598877096365644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1176113970661803</v>
+        <v>0.1147762735491515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6869474964578429</v>
+        <v>0.6701857382911236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3375,19 +3375,19 @@
         <v>12292</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6758</v>
+        <v>6971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19970</v>
+        <v>20359</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2726267455810163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1498875384187871</v>
+        <v>0.1546095614143678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4429179172366715</v>
+        <v>0.4515539413532946</v>
       </c>
     </row>
     <row r="18">
@@ -3479,19 +3479,19 @@
         <v>11809</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6120</v>
+        <v>6249</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20368</v>
+        <v>20648</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07383306652100154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03826277246223336</v>
+        <v>0.03907237850779784</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1273416862940209</v>
+        <v>0.1290925116767722</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3500,19 +3500,19 @@
         <v>5707</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2241</v>
+        <v>2216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12525</v>
+        <v>12404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05012899452689739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01968142601890866</v>
+        <v>0.01946944226639488</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1100196554478435</v>
+        <v>0.1089594901142249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -3521,19 +3521,19 @@
         <v>17516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10468</v>
+        <v>10549</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27654</v>
+        <v>28288</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06397672777039763</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03823366116276857</v>
+        <v>0.0385308062854399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1010024687142583</v>
+        <v>0.1033188448620578</v>
       </c>
     </row>
     <row r="20">
@@ -3550,19 +3550,19 @@
         <v>29165</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20609</v>
+        <v>20822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40148</v>
+        <v>39833</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1823455087541163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1288473114519856</v>
+        <v>0.1301791101952436</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2510117936309134</v>
+        <v>0.2490393738006478</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -3571,19 +3571,19 @@
         <v>33808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23373</v>
+        <v>23633</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44875</v>
+        <v>44863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2969674135496886</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2053068642459696</v>
+        <v>0.2075946846415502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3941809840640664</v>
+        <v>0.3940700819063541</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -3592,19 +3592,19 @@
         <v>62974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48873</v>
+        <v>49926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78089</v>
+        <v>78637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2300061943184206</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1785058448786323</v>
+        <v>0.1823494997242202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2852150594008648</v>
+        <v>0.2872162282653442</v>
       </c>
     </row>
     <row r="21">
@@ -3621,19 +3621,19 @@
         <v>88097</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>75007</v>
+        <v>74985</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>101453</v>
+        <v>101144</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.550789976465679</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4689541932009088</v>
+        <v>0.468817293978734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6342954571377103</v>
+        <v>0.6323622839391808</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -3642,19 +3642,19 @@
         <v>58606</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47685</v>
+        <v>46745</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71013</v>
+        <v>69092</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5147909898898845</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.418865736924259</v>
+        <v>0.41060408646276</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6237712986273768</v>
+        <v>0.606898488914664</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>135</v>
@@ -3663,19 +3663,19 @@
         <v>146703</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>129931</v>
+        <v>130289</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>164459</v>
+        <v>163532</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5358213159563063</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4745611401222847</v>
+        <v>0.475869135588157</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.600674207387351</v>
+        <v>0.5972859585279067</v>
       </c>
     </row>
     <row r="22">
@@ -3692,19 +3692,19 @@
         <v>30875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21272</v>
+        <v>21306</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42700</v>
+        <v>41289</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1930314482592032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1329965998534273</v>
+        <v>0.1332049741207786</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.266962900114418</v>
+        <v>0.258143665506553</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -3713,19 +3713,19 @@
         <v>15723</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8518</v>
+        <v>8755</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24940</v>
+        <v>25458</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1381126020335295</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07482059303501204</v>
+        <v>0.07690407870618725</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2190688221270766</v>
+        <v>0.223624913257833</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -3734,19 +3734,19 @@
         <v>46598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34183</v>
+        <v>34947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61188</v>
+        <v>60984</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1701957619548754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1248504530680557</v>
+        <v>0.1276418675601543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2234831664192501</v>
+        <v>0.2227393880722158</v>
       </c>
     </row>
     <row r="23">
@@ -4077,19 +4077,19 @@
         <v>2950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>752</v>
+        <v>879</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6891</v>
+        <v>7517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02003523532632896</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005107796394646622</v>
+        <v>0.005968381124226059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04680280136705376</v>
+        <v>0.05105276523998822</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4098,19 +4098,19 @@
         <v>2641</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>874</v>
+        <v>979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5977</v>
+        <v>6144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0144050674381658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004765857494387796</v>
+        <v>0.005342198976786664</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03260590809094761</v>
+        <v>0.03351776172557354</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4119,19 +4119,19 @@
         <v>5590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2631</v>
+        <v>2735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10568</v>
+        <v>10784</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01691294306237101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007958338873848695</v>
+        <v>0.008274530569602414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03197120143888554</v>
+        <v>0.03262710682715207</v>
       </c>
     </row>
     <row r="5">
@@ -4148,19 +4148,19 @@
         <v>36474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28232</v>
+        <v>28058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46818</v>
+        <v>46186</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2477269435771397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1917535556864709</v>
+        <v>0.1905666755802634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.317984383911579</v>
+        <v>0.3136955207183021</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -4169,19 +4169,19 @@
         <v>41860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33807</v>
+        <v>34033</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49919</v>
+        <v>50962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2283636465896333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1844329120462781</v>
+        <v>0.1856654539134706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2723263075310648</v>
+        <v>0.2780190455847589</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -4190,19 +4190,19 @@
         <v>78334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67699</v>
+        <v>65837</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92778</v>
+        <v>91603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2369887429426759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2048132748712819</v>
+        <v>0.1991813492054673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2806883973094223</v>
+        <v>0.2771329483883642</v>
       </c>
     </row>
     <row r="6">
@@ -4219,19 +4219,19 @@
         <v>82734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71635</v>
+        <v>73039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92473</v>
+        <v>92836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5619235143775083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4865427235792781</v>
+        <v>0.4960764960014474</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6280713203251929</v>
+        <v>0.6305366880135443</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -4240,19 +4240,19 @@
         <v>116204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>106255</v>
+        <v>106865</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>125119</v>
+        <v>125915</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6339358784682954</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.579660077128451</v>
+        <v>0.5829891860947279</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6825716749312765</v>
+        <v>0.68691473145572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>313</v>
@@ -4261,19 +4261,19 @@
         <v>198937</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>183125</v>
+        <v>184468</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>212775</v>
+        <v>214062</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6018590281625764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5540201993377093</v>
+        <v>0.5580845126379923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6437231642751906</v>
+        <v>0.6476181463541549</v>
       </c>
     </row>
     <row r="7">
@@ -4290,19 +4290,19 @@
         <v>25076</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17840</v>
+        <v>17237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34059</v>
+        <v>33753</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.170314306719023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1211704143489686</v>
+        <v>0.1170702839021099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2313246166530646</v>
+        <v>0.2292517929754508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -4311,19 +4311,19 @@
         <v>22601</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17140</v>
+        <v>16434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29875</v>
+        <v>29444</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1232954075039056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09350366806346962</v>
+        <v>0.08965522933002615</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1629815718912867</v>
+        <v>0.1606302427867845</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -4332,19 +4332,19 @@
         <v>47677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37396</v>
+        <v>37566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58883</v>
+        <v>59164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1442392858323767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.113137604623842</v>
+        <v>0.1136498348458783</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1781421104046974</v>
+        <v>0.1789935351718624</v>
       </c>
     </row>
     <row r="8">
@@ -4436,19 +4436,19 @@
         <v>9771</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5203</v>
+        <v>4850</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17843</v>
+        <v>16372</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03491918389432785</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01859431464639701</v>
+        <v>0.01733372106693398</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06376555316666885</v>
+        <v>0.05851038399965895</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -4457,19 +4457,19 @@
         <v>6000</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3001</v>
+        <v>2952</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10762</v>
+        <v>10540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02558948544460843</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01280043644916547</v>
+        <v>0.01259263464474833</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04590349483802475</v>
+        <v>0.04495607147055575</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -4478,19 +4478,19 @@
         <v>15771</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9786</v>
+        <v>9775</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23350</v>
+        <v>23896</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03066578585499425</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01902904802502623</v>
+        <v>0.01900657116923458</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04540338070703819</v>
+        <v>0.04646641714144675</v>
       </c>
     </row>
     <row r="10">
@@ -4507,19 +4507,19 @@
         <v>66261</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54049</v>
+        <v>53947</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80540</v>
+        <v>79436</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2368024705885518</v>
+        <v>0.2368024705885517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1931568914084175</v>
+        <v>0.1927948717795851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2878320041297113</v>
+        <v>0.2838837786214815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -4528,19 +4528,19 @@
         <v>64922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55597</v>
+        <v>54000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76666</v>
+        <v>75386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2769031895280874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2371323904166377</v>
+        <v>0.2303211631737522</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3269973519511766</v>
+        <v>0.3215365932719566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -4549,19 +4549,19 @@
         <v>131183</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113914</v>
+        <v>114621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147822</v>
+        <v>147902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2550843389932501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2215058094750049</v>
+        <v>0.222880597399619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2874385852153499</v>
+        <v>0.2875934197618002</v>
       </c>
     </row>
     <row r="11">
@@ -4578,19 +4578,19 @@
         <v>138310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123363</v>
+        <v>121046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>156227</v>
+        <v>152679</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4942875306890683</v>
+        <v>0.4942875306890682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4408687235697188</v>
+        <v>0.4325891841522846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5583183639315082</v>
+        <v>0.5456385460502349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>189</v>
@@ -4599,19 +4599,19 @@
         <v>112401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100987</v>
+        <v>100541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125042</v>
+        <v>123258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4794124916188346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4307309402665964</v>
+        <v>0.4288263339572504</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5333261784800706</v>
+        <v>0.5257189132128091</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>357</v>
@@ -4620,19 +4620,19 @@
         <v>250711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>231648</v>
+        <v>233216</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>270581</v>
+        <v>273614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4875060186865828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4504374995112321</v>
+        <v>0.4534862974453704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5261425610940064</v>
+        <v>0.5320398503286099</v>
       </c>
     </row>
     <row r="12">
@@ -4649,19 +4649,19 @@
         <v>65475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52128</v>
+        <v>52927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78767</v>
+        <v>79353</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2339908148280521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1862935878067925</v>
+        <v>0.1891498734741395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2814936250670532</v>
+        <v>0.2835888552290882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -4670,19 +4670,19 @@
         <v>51134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42496</v>
+        <v>41197</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>61707</v>
+        <v>61164</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2180948334084696</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1812519080762892</v>
+        <v>0.1757151337654864</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2631918668334975</v>
+        <v>0.2608752808155416</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -4691,19 +4691,19 @@
         <v>116608</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101281</v>
+        <v>100600</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>133997</v>
+        <v>133082</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2267438564651728</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1969392880308302</v>
+        <v>0.195615685433069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2605551940665533</v>
+        <v>0.2587773390279838</v>
       </c>
     </row>
     <row r="13">
@@ -4795,19 +4795,19 @@
         <v>6908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3162</v>
+        <v>3383</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12933</v>
+        <v>12234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05731380894618304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02623393453764549</v>
+        <v>0.02806380762619354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1072990137905527</v>
+        <v>0.1014996608212164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4816,19 +4816,19 @@
         <v>8684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4887</v>
+        <v>4911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13487</v>
+        <v>13523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09541459185518722</v>
+        <v>0.09541459185518725</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0536974580891794</v>
+        <v>0.05395636773128832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1481959230031692</v>
+        <v>0.1485883076091729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4837,19 +4837,19 @@
         <v>15592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10305</v>
+        <v>10251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23246</v>
+        <v>23146</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07370571967311641</v>
+        <v>0.07370571967311643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04871589076550897</v>
+        <v>0.04845790994349128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1098906276223574</v>
+        <v>0.1094149854449656</v>
       </c>
     </row>
     <row r="15">
@@ -4866,19 +4866,19 @@
         <v>32091</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23912</v>
+        <v>23758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41325</v>
+        <v>41267</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2662431589737396</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1983866347110131</v>
+        <v>0.1971073974044219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3428582084922451</v>
+        <v>0.3423765092821195</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -4887,19 +4887,19 @@
         <v>26896</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20698</v>
+        <v>20566</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33643</v>
+        <v>34779</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2955261539737202</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2274259422007044</v>
+        <v>0.2259694630700417</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3696534240190544</v>
+        <v>0.3821418649318545</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -4908,19 +4908,19 @@
         <v>58987</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>48932</v>
+        <v>49216</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>70769</v>
+        <v>71950</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2788414365735282</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2313091206748778</v>
+        <v>0.2326519635025393</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3345410480749523</v>
+        <v>0.3401222035577033</v>
       </c>
     </row>
     <row r="16">
@@ -4937,19 +4937,19 @@
         <v>51318</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41669</v>
+        <v>42154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60589</v>
+        <v>61166</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4257664306808177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3457110569943107</v>
+        <v>0.3497359674915657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5026786596347871</v>
+        <v>0.5074680119160435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -4958,19 +4958,19 @@
         <v>34924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27772</v>
+        <v>27621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42295</v>
+        <v>42080</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3837305710412262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3051510143729507</v>
+        <v>0.3034908460308942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4647277476277258</v>
+        <v>0.4623659916217596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -4979,19 +4979,19 @@
         <v>86242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74524</v>
+        <v>74228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98720</v>
+        <v>98493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.407681551422884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3522895507271628</v>
+        <v>0.350889600979945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4666670529685304</v>
+        <v>0.4655954283638657</v>
       </c>
     </row>
     <row r="17">
@@ -5008,19 +5008,19 @@
         <v>30215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22458</v>
+        <v>21476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39826</v>
+        <v>39761</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2506766013992596</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1863251143503007</v>
+        <v>0.1781771707616976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3304180133354787</v>
+        <v>0.3298788447160202</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -5029,19 +5029,19 @@
         <v>20507</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15490</v>
+        <v>14619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28713</v>
+        <v>26323</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2253286831298664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1701955160496344</v>
+        <v>0.1606273956522725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3154905214577158</v>
+        <v>0.2892315637668758</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -5050,19 +5050,19 @@
         <v>50722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>39613</v>
+        <v>41475</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62236</v>
+        <v>62442</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2397712923304714</v>
+        <v>0.2397712923304713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1872594387071935</v>
+        <v>0.1960619401770563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.294200147138187</v>
+        <v>0.2951762405098127</v>
       </c>
     </row>
     <row r="18">
@@ -5154,19 +5154,19 @@
         <v>19629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12649</v>
+        <v>13025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29622</v>
+        <v>28509</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03584662099713171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02309891628433556</v>
+        <v>0.02378577135677756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0540962799862988</v>
+        <v>0.05206392886976665</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -5175,19 +5175,19 @@
         <v>17324</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11457</v>
+        <v>11592</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24567</v>
+        <v>24680</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03405041931844046</v>
+        <v>0.03405041931844045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02251847733932818</v>
+        <v>0.022784203151102</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04828608005828164</v>
+        <v>0.04850813411242681</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -5196,19 +5196,19 @@
         <v>36953</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28602</v>
+        <v>28737</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48691</v>
+        <v>50168</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03498151559945128</v>
+        <v>0.03498151559945129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02707579284366233</v>
+        <v>0.02720440301350461</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04609367572500962</v>
+        <v>0.04749138719177441</v>
       </c>
     </row>
     <row r="20">
@@ -5225,19 +5225,19 @@
         <v>134826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118988</v>
+        <v>117519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>154149</v>
+        <v>152709</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2462202063916749</v>
+        <v>0.246220206391675</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2172967996136476</v>
+        <v>0.2146155558505151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2815095368450573</v>
+        <v>0.2788784108359533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -5246,19 +5246,19 @@
         <v>133678</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118978</v>
+        <v>118099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>149815</v>
+        <v>147201</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2627462960698398</v>
+        <v>0.2627462960698397</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2338531253900063</v>
+        <v>0.232125036311866</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2944631414935864</v>
+        <v>0.2893253429626074</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>399</v>
@@ -5267,19 +5267,19 @@
         <v>268503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246173</v>
+        <v>244875</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292287</v>
+        <v>292577</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.254179674169006</v>
+        <v>0.2541796741690061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2330404658840571</v>
+        <v>0.2318116125295605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2766949072505787</v>
+        <v>0.2769686949490823</v>
       </c>
     </row>
     <row r="21">
@@ -5296,19 +5296,19 @@
         <v>272362</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>249927</v>
+        <v>252077</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>292182</v>
+        <v>293211</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4973908294727968</v>
+        <v>0.4973908294727967</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4564202837324892</v>
+        <v>0.4603469788220926</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5335875440827776</v>
+        <v>0.5354650980289175</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>444</v>
@@ -5317,19 +5317,19 @@
         <v>263528</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>246457</v>
+        <v>247964</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>280859</v>
+        <v>283074</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5179695646391013</v>
+        <v>0.5179695646391014</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4844154164369454</v>
+        <v>0.4873771802950879</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5520330395586714</v>
+        <v>0.556387491579165</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>791</v>
@@ -5338,19 +5338,19 @@
         <v>535890</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>511404</v>
+        <v>507155</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>563319</v>
+        <v>560306</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.5073021746635979</v>
+        <v>0.5073021746635981</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4841220750011932</v>
+        <v>0.4800999932494625</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5332676323919777</v>
+        <v>0.5304156201807089</v>
       </c>
     </row>
     <row r="22">
@@ -5367,19 +5367,19 @@
         <v>120765</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104148</v>
+        <v>104171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139166</v>
+        <v>139162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2205423431383966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1901971249995809</v>
+        <v>0.1902386318697363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2541477339448642</v>
+        <v>0.25413903161267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -5388,19 +5388,19 @@
         <v>94242</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81106</v>
+        <v>80288</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107497</v>
+        <v>105943</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1852337199726184</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1594147162798565</v>
+        <v>0.1578072616941362</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2112862819201771</v>
+        <v>0.2082327289287831</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>307</v>
@@ -5409,19 +5409,19 @@
         <v>215007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193477</v>
+        <v>192565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>239060</v>
+        <v>237333</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2035366355679445</v>
+        <v>0.2035366355679446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1831554268307176</v>
+        <v>0.1822920248417246</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2263071888295927</v>
+        <v>0.2246721359281955</v>
       </c>
     </row>
     <row r="23">
